--- a/output/nswhealthitocmedicationstatement.xlsx
+++ b/output/nswhealthitocmedicationstatement.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="348">
   <si>
     <t>Path</t>
   </si>
@@ -869,18 +869,6 @@
     <t>http://www.mims.com.au/codes</t>
   </si>
   <si>
-    <t>cerner</t>
-  </si>
-  <si>
-    <t>http://cerner.com/itoc/codes</t>
-  </si>
-  <si>
-    <t>imdsoft</t>
-  </si>
-  <si>
-    <t>http://www.imd-soft.com/itoc/codes</t>
-  </si>
-  <si>
     <t>MedicationStatement.medication[x].text</t>
   </si>
   <si>
@@ -908,7 +896,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocmedication)
 </t>
   </si>
   <si>
@@ -1271,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7775,11 +7763,9 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B59" t="s" s="2">
         <v>270</v>
       </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7800,19 +7786,19 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7861,13 +7847,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7879,20 +7865,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>207</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7910,18 +7898,20 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7970,10 +7960,10 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>50</v>
@@ -7982,16 +7972,16 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -7999,18 +7989,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8019,20 +8009,18 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8069,48 +8057,48 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8118,7 +8106,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>50</v>
@@ -8133,26 +8121,22 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8194,7 +8178,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8209,21 +8193,21 @@
         <v>62</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8246,16 +8230,16 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8305,7 +8289,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8320,21 +8304,21 @@
         <v>62</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8357,18 +8341,16 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8416,7 +8398,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8434,18 +8416,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8465,21 +8447,19 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8527,7 +8507,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8545,18 +8525,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8567,7 +8547,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8576,23 +8556,21 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8640,13 +8618,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8658,22 +8636,20 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8682,7 +8658,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8691,23 +8667,21 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8731,13 +8705,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8755,7 +8727,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8770,21 +8742,21 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8795,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8807,15 +8779,17 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8864,28 +8838,28 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -8893,11 +8867,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8916,17 +8890,15 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8963,19 +8935,19 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>197</v>
+        <v>336</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8987,13 +8959,13 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9004,7 +8976,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9012,10 +8984,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9024,29 +8996,27 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>40</v>
@@ -9088,13 +9058,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9106,1787 +9076,17 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" s="2"/>
-      <c r="Y83" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM86">
+  <autoFilter ref="A1:AM70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10896,7 +9096,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/nswhealthitocmedicationstatement.xlsx
+++ b/output/nswhealthitocmedicationstatement.xlsx
@@ -450,7 +450,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocorder)
 </t>
   </si>
   <si>
@@ -906,7 +906,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocpatient)
 </t>
   </si>
   <si>

--- a/output/nswhealthitocmedicationstatement.xlsx
+++ b/output/nswhealthitocmedicationstatement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="356">
   <si>
     <t>Path</t>
   </si>
@@ -872,19 +872,25 @@
     <t>cerner</t>
   </si>
   <si>
-    <t>A cerner code</t>
+    <t>The cerner (MULTUM) code for the medication</t>
   </si>
   <si>
     <t>http://cerner.com/itoc/codes</t>
   </si>
   <si>
+    <t>Cerner (MULTUM) code value</t>
+  </si>
+  <si>
     <t>imdsoft</t>
   </si>
   <si>
-    <t>A MetaVision code</t>
+    <t>The MetaVision / IMDsoft code for the medication</t>
   </si>
   <si>
     <t>http://www.imd-soft.com/itoc/codes</t>
+  </si>
+  <si>
+    <t>MetaVision / IMDsoft code value</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].text</t>
@@ -918,7 +924,7 @@
 </t>
   </si>
   <si>
-    <t>Medication Reference</t>
+    <t>A reference to a NSW Health iTOC Medication</t>
   </si>
   <si>
     <t>MedicationStatement.subject</t>
@@ -8366,7 +8372,7 @@
         <v>70</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>232</v>
@@ -8678,7 +8684,7 @@
         <v>198</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>40</v>
@@ -8703,7 +8709,7 @@
         <v>199</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>201</v>
@@ -9052,7 +9058,7 @@
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>40</v>
@@ -9260,7 +9266,7 @@
         <v>70</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>232</v>
@@ -9569,7 +9575,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9595,16 +9601,16 @@
         <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9653,7 +9659,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9671,13 +9677,13 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -9685,7 +9691,7 @@
         <v>174</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>40</v>
@@ -9707,10 +9713,10 @@
         <v>51</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>177</v>
@@ -9795,7 +9801,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9818,13 +9824,13 @@
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9875,7 +9881,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -9890,21 +9896,21 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9927,13 +9933,13 @@
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9984,7 +9990,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9999,10 +10005,10 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10013,7 +10019,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10036,16 +10042,16 @@
         <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10095,7 +10101,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10110,13 +10116,13 @@
         <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10124,7 +10130,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10147,13 +10153,13 @@
         <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10204,7 +10210,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10222,10 +10228,10 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10233,7 +10239,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10256,13 +10262,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10313,7 +10319,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10331,10 +10337,10 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10342,7 +10348,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10365,16 +10371,16 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10424,7 +10430,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10442,7 +10448,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10453,7 +10459,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10479,13 +10485,13 @@
         <v>158</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10515,7 +10521,7 @@
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
@@ -10533,7 +10539,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10548,13 +10554,13 @@
         <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
@@ -10562,7 +10568,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10585,16 +10591,16 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10644,7 +10650,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10659,13 +10665,13 @@
         <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -10673,7 +10679,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10696,13 +10702,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10753,7 +10759,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10768,10 +10774,10 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10782,7 +10788,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10805,16 +10811,16 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10864,7 +10870,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10882,7 +10888,7 @@
         <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>

--- a/output/nswhealthitocmedicationstatement.xlsx
+++ b/output/nswhealthitocmedicationstatement.xlsx
@@ -588,8 +588,8 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
+    <t>CodeableConcept
+Reference</t>
   </si>
   <si>
     <t>Medication Detail</t>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the substance or product being taken.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -621,12 +627,6 @@
   </si>
   <si>
     <t>Coded Medication</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the substance or product being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].id</t>
@@ -3736,26 +3736,26 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>177</v>
@@ -3773,13 +3773,13 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3790,7 +3790,7 @@
         <v>177</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
@@ -3815,7 +3815,7 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>180</v>
@@ -3850,10 +3850,10 @@
         <v>165</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3886,13 +3886,13 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -9908,13 +9908,13 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>

--- a/output/nswhealthitocmedicationstatement.xlsx
+++ b/output/nswhealthitocmedicationstatement.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="362">
   <si>
     <t>Path</t>
   </si>
@@ -399,6 +399,16 @@
     <t>The diluent medication</t>
   </si>
   <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/additive}
+</t>
+  </si>
+  <si>
+    <t>An additive medication</t>
+  </si>
+  <si>
     <t>renderedDosageInstruction</t>
   </si>
   <si>
@@ -589,7 +599,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference</t>
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication Detail</t>
@@ -1293,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2803,7 +2813,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2901,43 +2911,41 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>123</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3003,7 +3011,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3014,11 +3022,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3031,24 +3039,26 @@
         <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3108,16 +3118,16 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3125,7 +3135,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3148,18 +3158,18 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3207,7 +3217,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3222,13 +3232,13 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3236,7 +3246,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3259,17 +3269,17 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3318,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3333,10 +3343,10 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3347,7 +3357,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3355,33 +3365,33 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3405,13 +3415,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3429,13 +3439,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3444,13 +3454,13 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3458,7 +3468,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3466,31 +3476,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3516,13 +3526,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3540,13 +3550,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3555,13 +3565,13 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3569,7 +3579,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3577,10 +3587,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3589,18 +3599,20 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3625,13 +3637,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3649,13 +3661,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3664,13 +3676,13 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3678,7 +3690,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3701,17 +3713,15 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3736,32 +3746,34 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3773,13 +3785,13 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3787,17 +3799,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3812,16 +3822,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3847,31 +3857,29 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>50</v>
@@ -3886,13 +3894,13 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3900,9 +3908,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3920,18 +3930,20 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3956,13 +3968,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3980,10 +3992,10 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>50</v>
@@ -3992,16 +4004,16 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4009,18 +4021,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4032,17 +4044,15 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4079,37 +4089,37 @@
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4120,11 +4130,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4140,23 +4150,21 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4192,9 +4200,11 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>99</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4214,28 +4224,26 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4256,19 +4264,19 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4293,29 +4301,29 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4333,20 +4341,22 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4364,19 +4374,23 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4400,13 +4414,11 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4424,47 +4436,47 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4476,17 +4488,15 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4523,37 +4533,37 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4564,18 +4574,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4584,29 +4594,27 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>40</v>
@@ -4636,48 +4644,48 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4685,7 +4693,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
@@ -4700,24 +4708,26 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>40</v>
@@ -4759,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4777,18 +4787,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4811,18 +4821,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4888,18 +4898,18 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4922,17 +4932,17 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4981,7 +4991,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4999,18 +5009,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5033,19 +5043,17 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5094,7 +5102,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5112,22 +5120,20 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5148,19 +5154,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5185,11 +5191,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5207,13 +5215,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5225,20 +5233,22 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5256,19 +5266,23 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5292,13 +5306,11 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5316,47 +5328,47 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5368,17 +5380,15 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5415,37 +5425,37 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5456,18 +5466,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5476,29 +5486,27 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>40</v>
@@ -5528,48 +5536,48 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5577,7 +5585,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -5592,24 +5600,26 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5651,7 +5661,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5669,18 +5679,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5703,18 +5713,18 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5762,7 +5772,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5780,18 +5790,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5814,17 +5824,17 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5873,7 +5883,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5891,18 +5901,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5925,19 +5935,17 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5986,7 +5994,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6004,22 +6012,20 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -6040,19 +6046,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6077,11 +6083,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6099,13 +6107,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6117,20 +6125,22 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6139,7 +6149,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6148,19 +6158,23 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6184,13 +6198,11 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6208,36 +6220,36 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6248,7 +6260,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6260,13 +6272,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6305,37 +6317,37 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6346,11 +6358,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6359,7 +6369,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6371,13 +6381,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6416,19 +6426,19 @@
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6457,15 +6467,17 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>50</v>
@@ -6477,29 +6489,25 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
@@ -6541,36 +6549,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6578,7 +6586,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>50</v>
@@ -6593,24 +6601,26 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
@@ -6652,7 +6662,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6670,18 +6680,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6704,18 +6714,18 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6763,7 +6773,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6781,18 +6791,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6815,17 +6825,17 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6874,7 +6884,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6892,18 +6902,18 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6926,19 +6936,17 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6987,7 +6995,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7005,22 +7013,20 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7041,19 +7047,19 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7078,11 +7084,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7100,13 +7108,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7118,20 +7126,22 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7149,19 +7159,23 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7185,13 +7199,11 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7209,47 +7221,47 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7261,17 +7273,15 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7308,37 +7318,37 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7349,18 +7359,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7369,29 +7379,27 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7421,48 +7429,48 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7470,7 +7478,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>50</v>
@@ -7485,24 +7493,26 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -7544,7 +7554,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7562,18 +7572,18 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7596,18 +7606,18 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7655,7 +7665,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7673,18 +7683,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7707,17 +7717,17 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7766,7 +7776,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7784,18 +7794,18 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7818,19 +7828,17 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7879,7 +7887,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7897,22 +7905,20 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7921,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7933,19 +7939,19 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7994,13 +8000,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8012,20 +8018,22 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8034,7 +8042,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8043,19 +8051,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8103,47 +8115,47 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8155,17 +8167,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8202,37 +8212,37 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8243,18 +8253,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8263,29 +8273,27 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
@@ -8315,48 +8323,48 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8364,7 +8372,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>50</v>
@@ -8379,24 +8387,26 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8438,7 +8448,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8456,18 +8466,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8475,7 +8485,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>50</v>
@@ -8490,18 +8500,18 @@
         <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8549,7 +8559,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8567,18 +8577,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8586,7 +8596,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>50</v>
@@ -8601,17 +8611,17 @@
         <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8660,7 +8670,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8678,18 +8688,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8712,19 +8722,17 @@
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8773,7 +8781,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8791,22 +8799,20 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8815,7 +8821,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8827,19 +8833,19 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8888,13 +8894,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8906,20 +8912,22 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>40</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -8937,19 +8945,23 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -8997,47 +9009,47 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9049,17 +9061,15 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9096,37 +9106,37 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9137,18 +9147,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9157,29 +9167,27 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>40</v>
@@ -9209,48 +9217,48 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9258,7 +9266,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>50</v>
@@ -9273,24 +9281,26 @@
         <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>40</v>
@@ -9332,7 +9342,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9350,18 +9360,18 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9369,7 +9379,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>50</v>
@@ -9384,18 +9394,18 @@
         <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9443,7 +9453,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9461,18 +9471,18 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9480,7 +9490,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>50</v>
@@ -9495,17 +9505,17 @@
         <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9554,7 +9564,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9572,18 +9582,18 @@
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9606,19 +9616,17 @@
         <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9667,7 +9675,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9685,18 +9693,18 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9719,19 +9727,19 @@
         <v>51</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9780,7 +9788,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9798,22 +9806,20 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9834,18 +9840,20 @@
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9893,10 +9901,10 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>50</v>
@@ -9908,29 +9916,31 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>50</v>
@@ -9951,9 +9961,11 @@
         <v>294</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10002,7 +10014,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -10017,21 +10029,21 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10039,7 +10051,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>50</v>
@@ -10054,13 +10066,13 @@
         <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10111,10 +10123,10 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>50</v>
@@ -10126,21 +10138,21 @@
         <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10163,17 +10175,15 @@
         <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10222,7 +10232,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10237,13 +10247,13 @@
         <v>62</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10251,7 +10261,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10274,15 +10284,17 @@
         <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10331,7 +10343,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10346,13 +10358,13 @@
         <v>62</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10360,7 +10372,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10380,16 +10392,16 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10440,7 +10452,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10458,10 +10470,10 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10469,7 +10481,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10480,7 +10492,7 @@
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
@@ -10492,17 +10504,15 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10551,13 +10561,13 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10569,10 +10579,10 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
@@ -10580,7 +10590,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10603,16 +10613,16 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10638,11 +10648,13 @@
         <v>40</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>40</v>
@@ -10660,7 +10672,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10675,13 +10687,13 @@
         <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -10689,7 +10701,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10712,16 +10724,16 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10747,13 +10759,11 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10771,7 +10781,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10786,13 +10796,13 @@
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -10800,7 +10810,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10823,15 +10833,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10880,7 +10892,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10895,13 +10907,13 @@
         <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -10909,7 +10921,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10932,17 +10944,15 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -10991,7 +11001,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11006,20 +11016,131 @@
         <v>62</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="L88" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11029,7 +11150,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
